--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_no_assign_models_results_Date_threshold_10_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_no_assign_models_results_Date_threshold_10_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="164">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -76,10 +76,10 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.815+/-0.001</t>
-  </si>
-  <si>
-    <t>0.802+/-0.0</t>
+    <t>0.814+/-0.001</t>
+  </si>
+  <si>
+    <t>0.803+/-0.0</t>
   </si>
   <si>
     <t>0.799</t>
@@ -88,397 +88,403 @@
     <t>0.969+/-0.004</t>
   </si>
   <si>
-    <t>0.721+/-0.146</t>
-  </si>
-  <si>
-    <t>0.562</t>
-  </si>
-  <si>
-    <t>0.085+/-0.007</t>
-  </si>
-  <si>
-    <t>0.03+/-0.011</t>
+    <t>0.766+/-0.139</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.081+/-0.007</t>
+  </si>
+  <si>
+    <t>0.029+/-0.009</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>4.707+/-0.052</t>
+  </si>
+  <si>
+    <t>0.802+/-0.001</t>
+  </si>
+  <si>
+    <t>0.797+/-0.0</t>
+  </si>
+  <si>
+    <t>0.697+/-0.064</t>
+  </si>
+  <si>
+    <t>0.399+/-0.254</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.028+/-0.006</t>
+  </si>
+  <si>
+    <t>0.019+/-0.014</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.931+/-0.039</t>
+  </si>
+  <si>
+    <t>0.819+/-0.001</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.958+/-0.008</t>
+  </si>
+  <si>
+    <t>0.456+/-0.175</t>
+  </si>
+  <si>
+    <t>0.429</t>
+  </si>
+  <si>
+    <t>0.104+/-0.007</t>
+  </si>
+  <si>
+    <t>0.033+/-0.016</t>
   </si>
   <si>
     <t>0.024</t>
   </si>
   <si>
-    <t>5.71+/-0.125</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
-    <t>0.797+/-0.0</t>
-  </si>
-  <si>
-    <t>0.644+/-0.051</t>
-  </si>
-  <si>
-    <t>0.351+/-0.213</t>
+    <t>3.279+/-0.05</t>
+  </si>
+  <si>
+    <t>0.8+/-0.0</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.2+/-0.4</t>
+  </si>
+  <si>
+    <t>0.005+/-0.002</t>
+  </si>
+  <si>
+    <t>0.001+/-0.003</t>
+  </si>
+  <si>
+    <t>0.665+/-0.035</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.858+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.967+/-0.01</t>
+  </si>
+  <si>
+    <t>0.71+/-0.335</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.053+/-0.003</t>
+  </si>
+  <si>
+    <t>0.013+/-0.007</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>4.405+/-0.128</t>
+  </si>
+  <si>
+    <t>0.852+/-0.001</t>
+  </si>
+  <si>
+    <t>0.849+/-0.0</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.762+/-0.067</t>
+  </si>
+  <si>
+    <t>0.378+/-0.358</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.02+/-0.002</t>
+  </si>
+  <si>
+    <t>0.007+/-0.005</t>
+  </si>
+  <si>
+    <t>1.0+/-0.094</t>
+  </si>
+  <si>
+    <t>0.863+/-0.001</t>
+  </si>
+  <si>
+    <t>0.848+/-0.0</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.984+/-0.01</t>
+  </si>
+  <si>
+    <t>0.421+/-0.217</t>
+  </si>
+  <si>
+    <t>0.273</t>
+  </si>
+  <si>
+    <t>0.087+/-0.005</t>
+  </si>
+  <si>
+    <t>0.019+/-0.009</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>3.254+/-0.282</t>
+  </si>
+  <si>
+    <t>0.003+/-0.001</t>
+  </si>
+  <si>
+    <t>0.799+/-0.029</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.762+/-0.002</t>
+  </si>
+  <si>
+    <t>0.991+/-0.005</t>
+  </si>
+  <si>
+    <t>0.503+/-0.1</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>0.029+/-0.006</t>
-  </si>
-  <si>
-    <t>0.02+/-0.015</t>
-  </si>
-  <si>
-    <t>0.021</t>
-  </si>
-  <si>
-    <t>1.054+/-0.034</t>
-  </si>
-  <si>
-    <t>0.818+/-0.001</t>
-  </si>
-  <si>
-    <t>0.798+/-0.0</t>
-  </si>
-  <si>
-    <t>0.797</t>
-  </si>
-  <si>
-    <t>0.952+/-0.011</t>
-  </si>
-  <si>
-    <t>0.475+/-0.181</t>
-  </si>
-  <si>
-    <t>0.429</t>
-  </si>
-  <si>
-    <t>0.103+/-0.004</t>
-  </si>
-  <si>
-    <t>0.035+/-0.017</t>
-  </si>
-  <si>
-    <t>3.598+/-0.053</t>
-  </si>
-  <si>
-    <t>0.8+/-0.001</t>
-  </si>
-  <si>
-    <t>0.994+/-0.018</t>
-  </si>
-  <si>
-    <t>0.4+/-0.49</t>
-  </si>
-  <si>
-    <t>0.008+/-0.003</t>
-  </si>
-  <si>
-    <t>0.004+/-0.006</t>
-  </si>
-  <si>
-    <t>0.79+/-0.013</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.858+/-0.001</t>
-  </si>
-  <si>
-    <t>0.851+/-0.0</t>
-  </si>
-  <si>
-    <t>0.851</t>
-  </si>
-  <si>
-    <t>0.972+/-0.007</t>
-  </si>
-  <si>
-    <t>0.657+/-0.323</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.058+/-0.004</t>
-  </si>
-  <si>
-    <t>0.013+/-0.006</t>
-  </si>
-  <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t>5.657+/-0.112</t>
-  </si>
-  <si>
-    <t>0.852+/-0.0</t>
-  </si>
-  <si>
-    <t>0.849+/-0.0</t>
-  </si>
-  <si>
-    <t>0.849</t>
-  </si>
-  <si>
-    <t>0.746+/-0.059</t>
-  </si>
-  <si>
-    <t>0.428+/-0.344</t>
-  </si>
-  <si>
-    <t>0.333</t>
+    <t>0.142+/-0.009</t>
+  </si>
+  <si>
+    <t>0.028+/-0.008</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>5.258+/-0.517</t>
+  </si>
+  <si>
+    <t>0.733+/-0.001</t>
+  </si>
+  <si>
+    <t>0.719+/-0.0</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>0.685+/-0.015</t>
+  </si>
+  <si>
+    <t>0.439+/-0.138</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.065+/-0.005</t>
+  </si>
+  <si>
+    <t>0.04+/-0.011</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.917+/-0.024</t>
+  </si>
+  <si>
+    <t>0.763+/-0.002</t>
+  </si>
+  <si>
+    <t>0.718+/-0.0</t>
+  </si>
+  <si>
+    <t>0.721</t>
+  </si>
+  <si>
+    <t>0.93+/-0.012</t>
+  </si>
+  <si>
+    <t>0.447+/-0.079</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.155+/-0.007</t>
+  </si>
+  <si>
+    <t>0.065+/-0.013</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>3.041+/-0.045</t>
+  </si>
+  <si>
+    <t>0.728+/-0.001</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.948+/-0.022</t>
+  </si>
+  <si>
+    <t>0.495+/-0.336</t>
   </si>
   <si>
     <t>0.019+/-0.002</t>
   </si>
   <si>
-    <t>0.009+/-0.006</t>
-  </si>
-  <si>
-    <t>1.036+/-0.019</t>
-  </si>
-  <si>
-    <t>0.863+/-0.001</t>
-  </si>
-  <si>
-    <t>0.847+/-0.0</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.988+/-0.006</t>
-  </si>
-  <si>
-    <t>0.305+/-0.146</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.09+/-0.006</t>
-  </si>
-  <si>
-    <t>0.014+/-0.007</t>
-  </si>
-  <si>
-    <t>3.522+/-0.093</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
-  </si>
-  <si>
-    <t>0.837+/-0.028</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.001+/-0.0</t>
-  </si>
-  <si>
-    <t>0.763+/-0.002</t>
-  </si>
-  <si>
-    <t>0.725+/-0.0</t>
-  </si>
-  <si>
-    <t>0.725</t>
-  </si>
-  <si>
-    <t>0.991+/-0.003</t>
-  </si>
-  <si>
-    <t>0.549+/-0.069</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.146+/-0.007</t>
+    <t>0.006+/-0.004</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.601+/-0.021</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.735+/-0.002</t>
+  </si>
+  <si>
+    <t>0.694+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.992+/-0.004</t>
+  </si>
+  <si>
+    <t>0.544+/-0.097</t>
+  </si>
+  <si>
+    <t>0.552</t>
+  </si>
+  <si>
+    <t>0.141+/-0.007</t>
   </si>
   <si>
     <t>0.031+/-0.011</t>
   </si>
   <si>
-    <t>0.031</t>
-  </si>
-  <si>
-    <t>5.223+/-0.387</t>
-  </si>
-  <si>
-    <t>0.733+/-0.001</t>
-  </si>
-  <si>
-    <t>0.718+/-0.0</t>
-  </si>
-  <si>
-    <t>0.719</t>
-  </si>
-  <si>
-    <t>0.684+/-0.015</t>
-  </si>
-  <si>
-    <t>0.417+/-0.123</t>
-  </si>
-  <si>
-    <t>0.065+/-0.006</t>
-  </si>
-  <si>
-    <t>0.037+/-0.011</t>
-  </si>
-  <si>
-    <t>0.041</t>
-  </si>
-  <si>
-    <t>1.039+/-0.085</t>
-  </si>
-  <si>
-    <t>0.763+/-0.001</t>
-  </si>
-  <si>
-    <t>0.717+/-0.0</t>
-  </si>
-  <si>
-    <t>0.718</t>
-  </si>
-  <si>
-    <t>0.934+/-0.009</t>
-  </si>
-  <si>
-    <t>0.431+/-0.046</t>
-  </si>
-  <si>
-    <t>0.433</t>
-  </si>
-  <si>
-    <t>0.155+/-0.006</t>
-  </si>
-  <si>
-    <t>0.065+/-0.014</t>
-  </si>
-  <si>
-    <t>0.056</t>
-  </si>
-  <si>
-    <t>3.428+/-0.095</t>
-  </si>
-  <si>
-    <t>0.728+/-0.001</t>
-  </si>
-  <si>
-    <t>0.941+/-0.026</t>
-  </si>
-  <si>
-    <t>0.452+/-0.364</t>
-  </si>
-  <si>
-    <t>0.021+/-0.003</t>
-  </si>
-  <si>
-    <t>0.005+/-0.005</t>
-  </si>
-  <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t>0.85+/-0.025</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.735+/-0.002</t>
-  </si>
-  <si>
-    <t>0.694+/-0.0</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.993+/-0.004</t>
-  </si>
-  <si>
-    <t>0.565+/-0.107</t>
-  </si>
-  <si>
-    <t>0.548</t>
-  </si>
-  <si>
-    <t>0.142+/-0.007</t>
-  </si>
-  <si>
-    <t>0.035+/-0.01</t>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>4.429+/-0.058</t>
+  </si>
+  <si>
+    <t>0.703+/-0.001</t>
+  </si>
+  <si>
+    <t>0.69+/-0.0</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.707+/-0.026</t>
+  </si>
+  <si>
+    <t>0.463+/-0.069</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.064+/-0.005</t>
+  </si>
+  <si>
+    <t>0.041+/-0.011</t>
   </si>
   <si>
     <t>0.03</t>
   </si>
   <si>
-    <t>5.801+/-0.24</t>
-  </si>
-  <si>
-    <t>0.703+/-0.001</t>
-  </si>
-  <si>
-    <t>0.69+/-0.0</t>
-  </si>
-  <si>
-    <t>0.685</t>
-  </si>
-  <si>
-    <t>0.707+/-0.026</t>
-  </si>
-  <si>
-    <t>0.463+/-0.069</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.064+/-0.005</t>
-  </si>
-  <si>
-    <t>0.041+/-0.011</t>
-  </si>
-  <si>
-    <t>1.118+/-0.018</t>
+    <t>0.858+/-0.031</t>
   </si>
   <si>
     <t>0.736+/-0.002</t>
   </si>
   <si>
-    <t>0.926+/-0.009</t>
-  </si>
-  <si>
-    <t>0.478+/-0.08</t>
-  </si>
-  <si>
-    <t>0.414</t>
+    <t>0.689+/-0.0</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>0.925+/-0.01</t>
+  </si>
+  <si>
+    <t>0.468+/-0.097</t>
+  </si>
+  <si>
+    <t>0.426</t>
   </si>
   <si>
     <t>0.157+/-0.006</t>
   </si>
   <si>
-    <t>0.065+/-0.012</t>
+    <t>0.062+/-0.014</t>
   </si>
   <si>
     <t>0.051</t>
   </si>
   <si>
-    <t>3.835+/-0.062</t>
+    <t>2.977+/-0.042</t>
   </si>
   <si>
     <t>0.698+/-0.001</t>
@@ -487,10 +493,10 @@
     <t>0.691</t>
   </si>
   <si>
-    <t>0.942+/-0.027</t>
-  </si>
-  <si>
-    <t>0.46+/-0.37</t>
+    <t>0.945+/-0.03</t>
+  </si>
+  <si>
+    <t>0.43+/-0.295</t>
   </si>
   <si>
     <t>0.4</t>
@@ -502,7 +508,7 @@
     <t>0.007+/-0.006</t>
   </si>
   <si>
-    <t>0.888+/-0.028</t>
+    <t>0.591+/-0.024</t>
   </si>
 </sst>
 </file>
@@ -917,7 +923,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -934,10 +940,10 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -957,7 +963,7 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -977,7 +983,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
@@ -997,7 +1003,7 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1017,7 +1023,7 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1037,7 +1043,7 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
@@ -1057,7 +1063,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1190,7 +1196,7 @@
         <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1287,7 +1293,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1307,7 +1313,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
         <v>85</v>
@@ -1351,16 +1357,16 @@
         <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1371,13 +1377,13 @@
         <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
         <v>86</v>
@@ -1391,16 +1397,16 @@
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1411,16 +1417,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1431,16 +1437,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1451,16 +1457,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1471,16 +1477,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1491,16 +1497,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1511,16 +1517,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1528,19 +1534,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1578,19 +1584,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
         <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1598,19 +1604,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1618,19 +1624,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1641,16 +1647,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1661,16 +1667,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1681,16 +1687,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1701,16 +1707,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1721,16 +1727,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1741,13 +1747,13 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1761,16 +1767,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
         <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
